--- a/SESCaseBC.xlsx
+++ b/SESCaseBC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB5B9B1-CB32-4B23-905A-FA47EBA6C58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FE079-C191-44AB-8AB7-915A700D7807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="19440" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Testworked</t>
+  </si>
+  <si>
+    <t>Tested</t>
   </si>
 </sst>
 </file>
@@ -594,26 +603,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="189.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" customWidth="1"/>
-    <col min="8" max="8" width="90.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="189.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" customWidth="1"/>
+    <col min="8" max="8" width="90.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -674,7 +683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -688,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -702,7 +711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -716,7 +725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -730,7 +739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -744,7 +753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -758,7 +767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>42</v>
       </c>
@@ -769,7 +778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -795,7 +804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -806,7 +815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -829,10 +838,13 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -846,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -860,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -874,7 +886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>30</v>
       </c>
@@ -888,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>34</v>
       </c>
@@ -902,7 +914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -916,7 +928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>42</v>
       </c>
@@ -927,7 +939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -950,10 +962,13 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -964,7 +979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>23</v>
       </c>

--- a/SESCaseBC.xlsx
+++ b/SESCaseBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -82,9 +82,6 @@
     <x:t>User should be able to input value for the Direction field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Modified Step</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Valid value for required field Origin </x:t>
   </x:si>
   <x:si>
@@ -167,9 +164,6 @@
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Case Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approved</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Case name to View the Details</x:t>
@@ -708,9 +702,7 @@
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
-      <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="K3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s"/>
@@ -718,16 +710,16 @@
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -739,16 +731,16 @@
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -760,16 +752,16 @@
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -781,16 +773,16 @@
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -802,16 +794,16 @@
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -824,13 +816,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -838,13 +830,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
@@ -854,14 +846,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
@@ -875,10 +865,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -886,13 +876,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
@@ -902,14 +892,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
@@ -940,16 +928,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="G14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -961,16 +949,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -982,16 +970,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="G16" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1003,16 +991,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1024,16 +1012,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+      <x:c r="G18" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1046,13 +1034,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1060,13 +1048,13 @@
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>14</x:v>
@@ -1076,14 +1064,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
     </x:row>
@@ -1097,10 +1083,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1113,13 +1099,13 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>

--- a/SESCaseBC.xlsx
+++ b/SESCaseBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -68,6 +68,9 @@
   </x:si>
   <x:si>
     <x:t>User should be navigated to the New  Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valid value for required field Direction </x:t>
@@ -679,7 +682,9 @@
       <x:c r="H2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s"/>
+      <x:c r="I2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
     </x:row>
@@ -689,16 +694,16 @@
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -710,16 +715,16 @@
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -731,16 +736,16 @@
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -752,16 +757,16 @@
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -773,16 +778,16 @@
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -794,16 +799,16 @@
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -816,13 +821,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -830,13 +835,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
@@ -846,12 +851,14 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
@@ -862,13 +869,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -876,13 +883,13 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>14</x:v>
@@ -892,12 +899,14 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
@@ -907,16 +916,16 @@
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -928,16 +937,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -949,16 +958,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -970,16 +979,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -991,16 +1000,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1012,16 +1021,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1034,13 +1043,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1048,13 +1057,13 @@
     </x:row>
     <x:row r="20" spans="1:11">
       <x:c r="A20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>14</x:v>
@@ -1064,12 +1073,14 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
     </x:row>
@@ -1080,13 +1091,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1099,13 +1110,13 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
